--- a/MichaelB/AnalyseExcel.xlsx
+++ b/MichaelB/AnalyseExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\MichaelB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WRSPOL\Documents\Files\DEV\Upwork\MichaelB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E93938-EE86-474F-A914-847F9EE65FFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4C830-DA03-442C-8790-A1E96ABADEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{65442D19-69B3-4397-B058-AC0A4A65BC13}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{65442D19-69B3-4397-B058-AC0A4A65BC13}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -43,31 +43,31 @@
     <t>Change 52 Weeks</t>
   </si>
   <si>
-    <t>All Coins &lt;</t>
-  </si>
-  <si>
-    <t>All Coins &gt;</t>
-  </si>
-  <si>
     <t>Check  Boundary Price</t>
   </si>
   <si>
-    <t>Top100 &lt;</t>
-  </si>
-  <si>
-    <t>Top100 &gt;</t>
-  </si>
-  <si>
-    <t>101-300 &lt;</t>
-  </si>
-  <si>
-    <t>101-300 &gt;</t>
-  </si>
-  <si>
-    <t>301-600 &lt;</t>
-  </si>
-  <si>
-    <t>301-600 &gt;</t>
+    <t>All Coins &lt; Boundary</t>
+  </si>
+  <si>
+    <t>Top100 &lt; Boundary</t>
+  </si>
+  <si>
+    <t>101-300 &lt; Boundary</t>
+  </si>
+  <si>
+    <t>301-600 &lt; Boundary</t>
+  </si>
+  <si>
+    <t>All Coins &gt; Boundary</t>
+  </si>
+  <si>
+    <t>Top100 &gt; Boundary</t>
+  </si>
+  <si>
+    <t>101-300 &gt; Boundary</t>
+  </si>
+  <si>
+    <t>301-600 &gt; Boundary</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,12 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,23 +454,23 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,31 +485,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A4BE1C-5A32-4F96-B0B1-5519BE937A51}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4">
+        <v>43891</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,47 +524,131 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>43919</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43961</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>-0.36175573859124222</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-9.3570555212964132E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.460489871268928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-0.3204893875754507</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-5.6038889204109481E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6.4087524226211983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-0.36175573859124222</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-9.3570555212964132E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12.460489871268928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-0.3204893875754507</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-5.6038889204109481E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6.4087524226211983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MichaelB/AnalyseExcel.xlsx
+++ b/MichaelB/AnalyseExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WRSPOL\Documents\Files\DEV\Upwork\MichaelB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4C830-DA03-442C-8790-A1E96ABADEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B4A4E-FA8C-4846-8B3D-99D447F394CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{65442D19-69B3-4397-B058-AC0A4A65BC13}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{65442D19-69B3-4397-B058-AC0A4A65BC13}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Check Date</t>
   </si>
@@ -46,28 +46,43 @@
     <t>Check  Boundary Price</t>
   </si>
   <si>
-    <t>All Coins &lt; Boundary</t>
-  </si>
-  <si>
-    <t>Top100 &lt; Boundary</t>
-  </si>
-  <si>
-    <t>101-300 &lt; Boundary</t>
-  </si>
-  <si>
-    <t>301-600 &lt; Boundary</t>
-  </si>
-  <si>
-    <t>All Coins &gt; Boundary</t>
-  </si>
-  <si>
-    <t>Top100 &gt; Boundary</t>
-  </si>
-  <si>
-    <t>101-300 &gt; Boundary</t>
-  </si>
-  <si>
-    <t>301-600 &gt; Boundary</t>
+    <t>Change 156 Weeks</t>
+  </si>
+  <si>
+    <t>All Coins &lt;</t>
+  </si>
+  <si>
+    <t>All Coins &gt;</t>
+  </si>
+  <si>
+    <t>Top30 &lt;</t>
+  </si>
+  <si>
+    <t>Top30 &gt;</t>
+  </si>
+  <si>
+    <t>Top100 &lt;</t>
+  </si>
+  <si>
+    <t>Top100 &gt;</t>
+  </si>
+  <si>
+    <t>101-300 &lt;</t>
+  </si>
+  <si>
+    <t>101-300 &gt;</t>
+  </si>
+  <si>
+    <t>301-600 &lt;</t>
+  </si>
+  <si>
+    <t>301-600 &gt;</t>
+  </si>
+  <si>
+    <t>600-1500 &lt;</t>
+  </si>
+  <si>
+    <t>600-1500 &gt;</t>
   </si>
 </sst>
 </file>
@@ -91,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -137,6 +158,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -453,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63179F6A-E5BF-44AF-8630-CAAC58DBBBA0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -485,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A4BE1C-5A32-4F96-B0B1-5519BE937A51}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,9 +519,10 @@
     <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,8 +546,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>43919</v>
       </c>
@@ -535,9 +561,9 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>-0.36175573859124222</v>
@@ -549,9 +575,9 @@
         <v>12.460489871268928</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>-0.3204893875754507</v>
@@ -563,65 +589,53 @@
         <v>6.4087524226211983</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
         <v>-0.36175573859124222</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="6">
         <v>-9.3570555212964132E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D8" s="6">
         <v>12.460489871268928</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-0.3204893875754507</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-5.6038889204109481E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6.4087524226211983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>-0.3204893875754507</v>
       </c>
       <c r="C9" s="6">
-        <v>0</v>
+        <v>-5.6038889204109481E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6.4087524226211983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -633,9 +647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -645,6 +659,44 @@
       </c>
       <c r="D11" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
